--- a/database/seeders/enderecos/xlsx/cidades/seed_cidades_mg.xlsx
+++ b/database/seeders/enderecos/xlsx/cidades/seed_cidades_mg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\OneDrive\Ambiente de Trabalho\estagio\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmaia/Documents/Dev/sysgcm/database/seeders/enderecos/xlsx/cidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7D6AB3-C2AA-4817-A515-4706D5BA743A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACADB906-6B71-D14E-96B8-AB0C6C0C6300}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -4973,16 +4973,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -5006,9 +5000,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5314,20 +5307,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:D859"/>
+  <dimension ref="A1:D854"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A847" workbookViewId="0">
-      <selection activeCell="C868" sqref="C868"/>
+      <selection activeCell="A855" sqref="A855:F867"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1012</v>
       </c>
@@ -5341,7 +5334,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3100104</v>
       </c>
@@ -5352,7 +5345,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3100203</v>
       </c>
@@ -5363,7 +5356,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3100302</v>
       </c>
@@ -5374,7 +5367,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3100401</v>
       </c>
@@ -5385,7 +5378,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3100500</v>
       </c>
@@ -5396,7 +5389,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3100609</v>
       </c>
@@ -5407,7 +5400,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3100708</v>
       </c>
@@ -5418,7 +5411,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3100807</v>
       </c>
@@ -5429,7 +5422,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3100906</v>
       </c>
@@ -5440,7 +5433,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3101003</v>
       </c>
@@ -5451,7 +5444,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3101102</v>
       </c>
@@ -5462,7 +5455,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3101201</v>
       </c>
@@ -5473,7 +5466,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3101300</v>
       </c>
@@ -5484,7 +5477,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3101409</v>
       </c>
@@ -5495,7 +5488,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3101508</v>
       </c>
@@ -5506,7 +5499,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3101607</v>
       </c>
@@ -5517,7 +5510,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3101631</v>
       </c>
@@ -5528,7 +5521,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3101706</v>
       </c>
@@ -5539,7 +5532,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3101805</v>
       </c>
@@ -5550,7 +5543,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3101904</v>
       </c>
@@ -5561,7 +5554,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3102001</v>
       </c>
@@ -5572,7 +5565,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>3102050</v>
       </c>
@@ -5583,7 +5576,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>3102100</v>
       </c>
@@ -5594,7 +5587,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>3102209</v>
       </c>
@@ -5605,7 +5598,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3102308</v>
       </c>
@@ -5616,7 +5609,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3102407</v>
       </c>
@@ -5627,7 +5620,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3102506</v>
       </c>
@@ -5638,7 +5631,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3102605</v>
       </c>
@@ -5649,7 +5642,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3102704</v>
       </c>
@@ -5660,7 +5653,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3102803</v>
       </c>
@@ -5671,7 +5664,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3102852</v>
       </c>
@@ -5682,7 +5675,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3102902</v>
       </c>
@@ -5693,7 +5686,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3103009</v>
       </c>
@@ -5704,7 +5697,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3103108</v>
       </c>
@@ -5715,7 +5708,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3103207</v>
       </c>
@@ -5726,7 +5719,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3103306</v>
       </c>
@@ -5737,7 +5730,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3103405</v>
       </c>
@@ -5748,7 +5741,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3103504</v>
       </c>
@@ -5759,7 +5752,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3103603</v>
       </c>
@@ -5770,7 +5763,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3103702</v>
       </c>
@@ -5781,7 +5774,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3103751</v>
       </c>
@@ -5792,7 +5785,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3103801</v>
       </c>
@@ -5803,7 +5796,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3103900</v>
       </c>
@@ -5814,7 +5807,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3104007</v>
       </c>
@@ -5825,7 +5818,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3104106</v>
       </c>
@@ -5836,7 +5829,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3104205</v>
       </c>
@@ -5847,7 +5840,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3104304</v>
       </c>
@@ -5858,7 +5851,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3104403</v>
       </c>
@@ -5869,7 +5862,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3104452</v>
       </c>
@@ -5880,7 +5873,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3104502</v>
       </c>
@@ -5891,7 +5884,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3104601</v>
       </c>
@@ -5902,7 +5895,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3104700</v>
       </c>
@@ -5913,7 +5906,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3104809</v>
       </c>
@@ -5924,7 +5917,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3104908</v>
       </c>
@@ -5935,7 +5928,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3105004</v>
       </c>
@@ -5946,7 +5939,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3105103</v>
       </c>
@@ -5957,7 +5950,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3105202</v>
       </c>
@@ -5968,7 +5961,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3105301</v>
       </c>
@@ -5979,7 +5972,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3105400</v>
       </c>
@@ -5990,7 +5983,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3105509</v>
       </c>
@@ -6001,7 +5994,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3105608</v>
       </c>
@@ -6012,7 +6005,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3105707</v>
       </c>
@@ -6023,7 +6016,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3105905</v>
       </c>
@@ -6034,7 +6027,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3106002</v>
       </c>
@@ -6045,7 +6038,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3106101</v>
       </c>
@@ -6056,7 +6049,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3106200</v>
       </c>
@@ -6067,7 +6060,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3106309</v>
       </c>
@@ -6078,7 +6071,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3106408</v>
       </c>
@@ -6089,7 +6082,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3106507</v>
       </c>
@@ -6100,7 +6093,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3106606</v>
       </c>
@@ -6111,7 +6104,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3106655</v>
       </c>
@@ -6122,7 +6115,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3106705</v>
       </c>
@@ -6133,7 +6126,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3106804</v>
       </c>
@@ -6144,7 +6137,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3106903</v>
       </c>
@@ -6155,7 +6148,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3107000</v>
       </c>
@@ -6166,7 +6159,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3107109</v>
       </c>
@@ -6177,7 +6170,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3107208</v>
       </c>
@@ -6188,7 +6181,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3107307</v>
       </c>
@@ -6199,7 +6192,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3107406</v>
       </c>
@@ -6210,7 +6203,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3107505</v>
       </c>
@@ -6221,7 +6214,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3107604</v>
       </c>
@@ -6232,7 +6225,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3107703</v>
       </c>
@@ -6243,7 +6236,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3107802</v>
       </c>
@@ -6254,7 +6247,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3107901</v>
       </c>
@@ -6265,7 +6258,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3108008</v>
       </c>
@@ -6276,7 +6269,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3108107</v>
       </c>
@@ -6287,7 +6280,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3108206</v>
       </c>
@@ -6298,7 +6291,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3108255</v>
       </c>
@@ -6309,7 +6302,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3108305</v>
       </c>
@@ -6320,7 +6313,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3108404</v>
       </c>
@@ -6331,7 +6324,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3108503</v>
       </c>
@@ -6342,7 +6335,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3108552</v>
       </c>
@@ -6353,7 +6346,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3108602</v>
       </c>
@@ -6364,7 +6357,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>3108701</v>
       </c>
@@ -6375,7 +6368,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>3108800</v>
       </c>
@@ -6386,7 +6379,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>3108909</v>
       </c>
@@ -6397,7 +6390,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3109006</v>
       </c>
@@ -6408,7 +6401,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>3109105</v>
       </c>
@@ -6419,7 +6412,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3109204</v>
       </c>
@@ -6430,7 +6423,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>3109253</v>
       </c>
@@ -6441,7 +6434,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3109303</v>
       </c>
@@ -6452,7 +6445,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>3109402</v>
       </c>
@@ -6463,7 +6456,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3109451</v>
       </c>
@@ -6474,7 +6467,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>3109501</v>
       </c>
@@ -6485,7 +6478,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3109600</v>
       </c>
@@ -6496,7 +6489,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>3109709</v>
       </c>
@@ -6507,7 +6500,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>3109808</v>
       </c>
@@ -6518,7 +6511,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>3109907</v>
       </c>
@@ -6529,7 +6522,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3110004</v>
       </c>
@@ -6540,7 +6533,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>3110103</v>
       </c>
@@ -6551,7 +6544,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>3110202</v>
       </c>
@@ -6562,7 +6555,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>3110301</v>
       </c>
@@ -6573,7 +6566,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>3110400</v>
       </c>
@@ -6584,7 +6577,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>3110509</v>
       </c>
@@ -6595,7 +6588,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>3110608</v>
       </c>
@@ -6606,7 +6599,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3110707</v>
       </c>
@@ -6617,7 +6610,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3110806</v>
       </c>
@@ -6628,7 +6621,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>3110905</v>
       </c>
@@ -6639,7 +6632,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>3111002</v>
       </c>
@@ -6650,7 +6643,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>3111101</v>
       </c>
@@ -6661,7 +6654,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>3111150</v>
       </c>
@@ -6672,7 +6665,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3111200</v>
       </c>
@@ -6683,7 +6676,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3111309</v>
       </c>
@@ -6694,7 +6687,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3111408</v>
       </c>
@@ -6705,7 +6698,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3111507</v>
       </c>
@@ -6716,7 +6709,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3111606</v>
       </c>
@@ -6727,7 +6720,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>3111705</v>
       </c>
@@ -6738,7 +6731,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>3111804</v>
       </c>
@@ -6749,7 +6742,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3111903</v>
       </c>
@@ -6760,7 +6753,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>3112000</v>
       </c>
@@ -6771,7 +6764,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>3112059</v>
       </c>
@@ -6782,7 +6775,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>3112109</v>
       </c>
@@ -6793,7 +6786,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>3112208</v>
       </c>
@@ -6804,7 +6797,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>3112307</v>
       </c>
@@ -6815,7 +6808,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>3112406</v>
       </c>
@@ -6826,7 +6819,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>3112505</v>
       </c>
@@ -6837,7 +6830,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>3112604</v>
       </c>
@@ -6848,7 +6841,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>3112653</v>
       </c>
@@ -6859,7 +6852,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>3112703</v>
       </c>
@@ -6870,7 +6863,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>3112802</v>
       </c>
@@ -6881,7 +6874,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3112901</v>
       </c>
@@ -6892,7 +6885,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>3113008</v>
       </c>
@@ -6903,7 +6896,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>3113107</v>
       </c>
@@ -6914,7 +6907,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3113206</v>
       </c>
@@ -6925,7 +6918,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>3113305</v>
       </c>
@@ -6936,7 +6929,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>3113404</v>
       </c>
@@ -6947,7 +6940,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>3113503</v>
       </c>
@@ -6958,7 +6951,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>3113602</v>
       </c>
@@ -6969,7 +6962,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3113701</v>
       </c>
@@ -6980,7 +6973,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>3113800</v>
       </c>
@@ -6991,7 +6984,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>3113909</v>
       </c>
@@ -7002,7 +6995,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3114006</v>
       </c>
@@ -7013,7 +7006,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3114105</v>
       </c>
@@ -7024,7 +7017,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>3114204</v>
       </c>
@@ -7035,7 +7028,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>3114303</v>
       </c>
@@ -7046,7 +7039,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>3114402</v>
       </c>
@@ -7057,7 +7050,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>3114501</v>
       </c>
@@ -7068,7 +7061,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>3114550</v>
       </c>
@@ -7079,7 +7072,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>3114600</v>
       </c>
@@ -7090,7 +7083,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>3114709</v>
       </c>
@@ -7101,7 +7094,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>3114808</v>
       </c>
@@ -7112,7 +7105,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>3114907</v>
       </c>
@@ -7123,7 +7116,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>3115003</v>
       </c>
@@ -7134,7 +7127,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>3115102</v>
       </c>
@@ -7145,7 +7138,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3115201</v>
       </c>
@@ -7156,7 +7149,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3115300</v>
       </c>
@@ -7167,7 +7160,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>3115359</v>
       </c>
@@ -7178,7 +7171,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>3115409</v>
       </c>
@@ -7189,7 +7182,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>3115458</v>
       </c>
@@ -7200,7 +7193,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>3115474</v>
       </c>
@@ -7211,7 +7204,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>3115508</v>
       </c>
@@ -7222,7 +7215,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>3115607</v>
       </c>
@@ -7233,7 +7226,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>3115706</v>
       </c>
@@ -7244,7 +7237,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>3115805</v>
       </c>
@@ -7255,7 +7248,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>3115904</v>
       </c>
@@ -7266,7 +7259,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>3116001</v>
       </c>
@@ -7277,7 +7270,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3116100</v>
       </c>
@@ -7288,7 +7281,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>3116159</v>
       </c>
@@ -7299,7 +7292,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3116209</v>
       </c>
@@ -7310,7 +7303,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>3116308</v>
       </c>
@@ -7321,7 +7314,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>3116407</v>
       </c>
@@ -7332,7 +7325,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>3116506</v>
       </c>
@@ -7343,7 +7336,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>3116605</v>
       </c>
@@ -7354,7 +7347,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>3116704</v>
       </c>
@@ -7365,7 +7358,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3116803</v>
       </c>
@@ -7376,7 +7369,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>3116902</v>
       </c>
@@ -7387,7 +7380,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>3117009</v>
       </c>
@@ -7398,7 +7391,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>3117108</v>
       </c>
@@ -7409,7 +7402,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3117207</v>
       </c>
@@ -7420,7 +7413,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>3117306</v>
       </c>
@@ -7431,7 +7424,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>3117405</v>
       </c>
@@ -7442,7 +7435,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>3117504</v>
       </c>
@@ -7453,7 +7446,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>3117603</v>
       </c>
@@ -7464,7 +7457,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3117702</v>
       </c>
@@ -7475,7 +7468,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>3117801</v>
       </c>
@@ -7486,7 +7479,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>3117836</v>
       </c>
@@ -7497,7 +7490,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>3117876</v>
       </c>
@@ -7508,7 +7501,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>3117900</v>
       </c>
@@ -7519,7 +7512,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>3118007</v>
       </c>
@@ -7530,7 +7523,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>3118106</v>
       </c>
@@ -7541,7 +7534,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3118205</v>
       </c>
@@ -7552,7 +7545,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>3118304</v>
       </c>
@@ -7563,7 +7556,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>3118403</v>
       </c>
@@ -7574,7 +7567,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3118502</v>
       </c>
@@ -7585,7 +7578,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>3118601</v>
       </c>
@@ -7596,7 +7589,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>3118700</v>
       </c>
@@ -7607,7 +7600,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3118809</v>
       </c>
@@ -7618,7 +7611,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>3118908</v>
       </c>
@@ -7629,7 +7622,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>3119005</v>
       </c>
@@ -7640,7 +7633,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>3119104</v>
       </c>
@@ -7651,7 +7644,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>3119203</v>
       </c>
@@ -7662,7 +7655,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>3119302</v>
       </c>
@@ -7673,7 +7666,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3119401</v>
       </c>
@@ -7684,7 +7677,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>3119500</v>
       </c>
@@ -7695,7 +7688,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>3119609</v>
       </c>
@@ -7706,7 +7699,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3119708</v>
       </c>
@@ -7717,7 +7710,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>3119807</v>
       </c>
@@ -7728,7 +7721,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>3119906</v>
       </c>
@@ -7739,7 +7732,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3119955</v>
       </c>
@@ -7750,7 +7743,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>3120003</v>
       </c>
@@ -7761,7 +7754,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>3120102</v>
       </c>
@@ -7772,7 +7765,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>3120151</v>
       </c>
@@ -7783,7 +7776,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>3120201</v>
       </c>
@@ -7794,7 +7787,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>3120300</v>
       </c>
@@ -7805,7 +7798,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3120409</v>
       </c>
@@ -7816,7 +7809,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>3120508</v>
       </c>
@@ -7827,7 +7820,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>3120607</v>
       </c>
@@ -7838,7 +7831,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>3120706</v>
       </c>
@@ -7849,7 +7842,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>3120805</v>
       </c>
@@ -7860,7 +7853,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>3120839</v>
       </c>
@@ -7871,7 +7864,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3120870</v>
       </c>
@@ -7882,7 +7875,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>3120904</v>
       </c>
@@ -7893,7 +7886,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>3121001</v>
       </c>
@@ -7904,7 +7897,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>3121100</v>
       </c>
@@ -7915,7 +7908,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>3121209</v>
       </c>
@@ -7926,7 +7919,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>3121258</v>
       </c>
@@ -7937,7 +7930,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3121308</v>
       </c>
@@ -7948,7 +7941,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>3121407</v>
       </c>
@@ -7959,7 +7952,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>3121506</v>
       </c>
@@ -7970,7 +7963,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>3121605</v>
       </c>
@@ -7981,7 +7974,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>3121704</v>
       </c>
@@ -7992,7 +7985,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>3121803</v>
       </c>
@@ -8003,7 +7996,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>3121902</v>
       </c>
@@ -8014,7 +8007,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>3122009</v>
       </c>
@@ -8025,7 +8018,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>3122108</v>
       </c>
@@ -8036,7 +8029,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>3122207</v>
       </c>
@@ -8047,7 +8040,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>3122306</v>
       </c>
@@ -8058,7 +8051,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>3122355</v>
       </c>
@@ -8069,7 +8062,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3122405</v>
       </c>
@@ -8080,7 +8073,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>3122454</v>
       </c>
@@ -8091,7 +8084,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>3122470</v>
       </c>
@@ -8102,7 +8095,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>3122504</v>
       </c>
@@ -8113,7 +8106,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>3122603</v>
       </c>
@@ -8124,7 +8117,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>3122702</v>
       </c>
@@ -8135,7 +8128,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>3122801</v>
       </c>
@@ -8146,7 +8139,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>3122900</v>
       </c>
@@ -8157,7 +8150,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>3123007</v>
       </c>
@@ -8168,7 +8161,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>3123106</v>
       </c>
@@ -8179,7 +8172,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>3123205</v>
       </c>
@@ -8190,7 +8183,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>3123304</v>
       </c>
@@ -8201,7 +8194,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>3123403</v>
       </c>
@@ -8212,7 +8205,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>3123502</v>
       </c>
@@ -8223,7 +8216,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>3123528</v>
       </c>
@@ -8234,7 +8227,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>3123601</v>
       </c>
@@ -8245,7 +8238,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>3123700</v>
       </c>
@@ -8256,7 +8249,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>3123809</v>
       </c>
@@ -8267,7 +8260,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>3123858</v>
       </c>
@@ -8278,7 +8271,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>3123908</v>
       </c>
@@ -8289,7 +8282,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>3124005</v>
       </c>
@@ -8300,7 +8293,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>3124104</v>
       </c>
@@ -8311,7 +8304,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>3124203</v>
       </c>
@@ -8322,7 +8315,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>3124302</v>
       </c>
@@ -8333,7 +8326,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3124401</v>
       </c>
@@ -8344,7 +8337,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>3124500</v>
       </c>
@@ -8355,7 +8348,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>3124609</v>
       </c>
@@ -8366,7 +8359,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>3124708</v>
       </c>
@@ -8377,7 +8370,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>3124807</v>
       </c>
@@ -8388,7 +8381,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>3124906</v>
       </c>
@@ -8399,7 +8392,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>3125002</v>
       </c>
@@ -8410,7 +8403,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>3125101</v>
       </c>
@@ -8421,7 +8414,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>3125200</v>
       </c>
@@ -8432,7 +8425,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>3125309</v>
       </c>
@@ -8443,7 +8436,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>3125408</v>
       </c>
@@ -8454,7 +8447,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>3125507</v>
       </c>
@@ -8465,7 +8458,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3125606</v>
       </c>
@@ -8476,7 +8469,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>3125705</v>
       </c>
@@ -8487,7 +8480,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>3125804</v>
       </c>
@@ -8498,7 +8491,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>3125903</v>
       </c>
@@ -8509,7 +8502,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>3125952</v>
       </c>
@@ -8520,7 +8513,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>3126000</v>
       </c>
@@ -8531,7 +8524,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>3126109</v>
       </c>
@@ -8542,7 +8535,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>3126208</v>
       </c>
@@ -8553,7 +8546,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>3126307</v>
       </c>
@@ -8564,7 +8557,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>3126406</v>
       </c>
@@ -8575,7 +8568,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>3126505</v>
       </c>
@@ -8586,7 +8579,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>3126604</v>
       </c>
@@ -8597,7 +8590,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>3126703</v>
       </c>
@@ -8608,7 +8601,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>3126752</v>
       </c>
@@ -8619,7 +8612,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>3126802</v>
       </c>
@@ -8630,7 +8623,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>3126901</v>
       </c>
@@ -8641,7 +8634,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>3126950</v>
       </c>
@@ -8652,7 +8645,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>3127008</v>
       </c>
@@ -8663,7 +8656,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>3127057</v>
       </c>
@@ -8674,7 +8667,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>3127073</v>
       </c>
@@ -8685,7 +8678,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>3127107</v>
       </c>
@@ -8696,7 +8689,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>3127206</v>
       </c>
@@ -8707,7 +8700,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>3127305</v>
       </c>
@@ -8718,7 +8711,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>3127339</v>
       </c>
@@ -8729,7 +8722,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>3127354</v>
       </c>
@@ -8740,7 +8733,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>3127370</v>
       </c>
@@ -8751,7 +8744,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>3127388</v>
       </c>
@@ -8762,7 +8755,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>3127404</v>
       </c>
@@ -8773,7 +8766,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>3127503</v>
       </c>
@@ -8784,7 +8777,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>3127602</v>
       </c>
@@ -8795,7 +8788,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>3127701</v>
       </c>
@@ -8806,7 +8799,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>3127800</v>
       </c>
@@ -8817,7 +8810,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>3127909</v>
       </c>
@@ -8828,7 +8821,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>3128006</v>
       </c>
@@ -8839,7 +8832,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>3128105</v>
       </c>
@@ -8850,7 +8843,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>3128204</v>
       </c>
@@ -8861,7 +8854,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>3128253</v>
       </c>
@@ -8872,7 +8865,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>3128303</v>
       </c>
@@ -8883,7 +8876,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>3128402</v>
       </c>
@@ -8894,7 +8887,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>3128501</v>
       </c>
@@ -8905,7 +8898,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>3128600</v>
       </c>
@@ -8916,7 +8909,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>3128709</v>
       </c>
@@ -8927,7 +8920,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>3128808</v>
       </c>
@@ -8938,7 +8931,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>3128907</v>
       </c>
@@ -8949,7 +8942,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>3129004</v>
       </c>
@@ -8960,7 +8953,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>3129103</v>
       </c>
@@ -8971,7 +8964,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>3129202</v>
       </c>
@@ -8982,7 +8975,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>3129301</v>
       </c>
@@ -8993,7 +8986,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>3129400</v>
       </c>
@@ -9004,7 +8997,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>3129509</v>
       </c>
@@ -9015,7 +9008,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>3129608</v>
       </c>
@@ -9026,7 +9019,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>3129657</v>
       </c>
@@ -9037,7 +9030,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>3129707</v>
       </c>
@@ -9048,7 +9041,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>3129806</v>
       </c>
@@ -9059,7 +9052,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>3129905</v>
       </c>
@@ -9070,7 +9063,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>3130002</v>
       </c>
@@ -9081,7 +9074,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>3130051</v>
       </c>
@@ -9092,7 +9085,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>3130101</v>
       </c>
@@ -9103,7 +9096,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>3130200</v>
       </c>
@@ -9114,7 +9107,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>3130309</v>
       </c>
@@ -9125,7 +9118,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>3130408</v>
       </c>
@@ -9136,7 +9129,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>3130507</v>
       </c>
@@ -9147,7 +9140,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>3130556</v>
       </c>
@@ -9158,7 +9151,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>3130606</v>
       </c>
@@ -9169,7 +9162,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>3130655</v>
       </c>
@@ -9180,7 +9173,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>3130705</v>
       </c>
@@ -9191,7 +9184,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>3130804</v>
       </c>
@@ -9202,7 +9195,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>3130903</v>
       </c>
@@ -9213,7 +9206,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>3131000</v>
       </c>
@@ -9224,7 +9217,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>3131109</v>
       </c>
@@ -9235,7 +9228,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>3131158</v>
       </c>
@@ -9246,7 +9239,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>3131208</v>
       </c>
@@ -9257,7 +9250,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>3131307</v>
       </c>
@@ -9268,7 +9261,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>3131406</v>
       </c>
@@ -9279,7 +9272,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>3131505</v>
       </c>
@@ -9290,7 +9283,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>3131604</v>
       </c>
@@ -9301,7 +9294,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>3131703</v>
       </c>
@@ -9312,7 +9305,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>3131802</v>
       </c>
@@ -9323,7 +9316,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>3131901</v>
       </c>
@@ -9334,7 +9327,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>3132008</v>
       </c>
@@ -9345,7 +9338,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>3132107</v>
       </c>
@@ -9356,7 +9349,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>3132206</v>
       </c>
@@ -9367,7 +9360,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>3132305</v>
       </c>
@@ -9378,7 +9371,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369">
         <v>3132404</v>
       </c>
@@ -9389,7 +9382,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>3132503</v>
       </c>
@@ -9400,7 +9393,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>3132602</v>
       </c>
@@ -9411,7 +9404,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372">
         <v>3132701</v>
       </c>
@@ -9422,7 +9415,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373">
         <v>3132800</v>
       </c>
@@ -9433,7 +9426,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374">
         <v>3132909</v>
       </c>
@@ -9444,7 +9437,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375">
         <v>3133006</v>
       </c>
@@ -9455,7 +9448,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376">
         <v>3133105</v>
       </c>
@@ -9466,7 +9459,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377">
         <v>3133204</v>
       </c>
@@ -9477,7 +9470,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378">
         <v>3133303</v>
       </c>
@@ -9488,7 +9481,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379">
         <v>3133402</v>
       </c>
@@ -9499,7 +9492,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380">
         <v>3133501</v>
       </c>
@@ -9510,7 +9503,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381">
         <v>3133600</v>
       </c>
@@ -9521,7 +9514,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382">
         <v>3133709</v>
       </c>
@@ -9532,7 +9525,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383">
         <v>3133758</v>
       </c>
@@ -9543,7 +9536,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384">
         <v>3133808</v>
       </c>
@@ -9554,7 +9547,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385">
         <v>3133907</v>
       </c>
@@ -9565,7 +9558,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386">
         <v>3134004</v>
       </c>
@@ -9576,7 +9569,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387">
         <v>3134103</v>
       </c>
@@ -9587,7 +9580,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388">
         <v>3134202</v>
       </c>
@@ -9598,7 +9591,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389">
         <v>3134301</v>
       </c>
@@ -9609,7 +9602,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390">
         <v>3134400</v>
       </c>
@@ -9620,7 +9613,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391">
         <v>3134509</v>
       </c>
@@ -9631,7 +9624,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392">
         <v>3134608</v>
       </c>
@@ -9642,7 +9635,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393">
         <v>3134707</v>
       </c>
@@ -9653,7 +9646,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394">
         <v>3134806</v>
       </c>
@@ -9664,7 +9657,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395">
         <v>3134905</v>
       </c>
@@ -9675,7 +9668,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>3135001</v>
       </c>
@@ -9686,7 +9679,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397">
         <v>3135050</v>
       </c>
@@ -9697,7 +9690,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398">
         <v>3135076</v>
       </c>
@@ -9708,7 +9701,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399">
         <v>3135100</v>
       </c>
@@ -9719,7 +9712,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400">
         <v>3135209</v>
       </c>
@@ -9730,7 +9723,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401">
         <v>3135308</v>
       </c>
@@ -9741,7 +9734,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402">
         <v>3135357</v>
       </c>
@@ -9752,7 +9745,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A403">
         <v>3135407</v>
       </c>
@@ -9763,7 +9756,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404">
         <v>3135456</v>
       </c>
@@ -9774,7 +9767,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405">
         <v>3135506</v>
       </c>
@@ -9785,7 +9778,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>3135605</v>
       </c>
@@ -9796,7 +9789,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407">
         <v>3135704</v>
       </c>
@@ -9807,7 +9800,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408">
         <v>3135803</v>
       </c>
@@ -9818,7 +9811,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409">
         <v>3135902</v>
       </c>
@@ -9829,7 +9822,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410">
         <v>3136009</v>
       </c>
@@ -9840,7 +9833,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411">
         <v>3136108</v>
       </c>
@@ -9851,7 +9844,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412">
         <v>3136207</v>
       </c>
@@ -9862,7 +9855,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413">
         <v>3136306</v>
       </c>
@@ -9873,7 +9866,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414">
         <v>3136405</v>
       </c>
@@ -9884,7 +9877,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415">
         <v>3136504</v>
       </c>
@@ -9895,7 +9888,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416">
         <v>3136520</v>
       </c>
@@ -9906,7 +9899,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417">
         <v>3136553</v>
       </c>
@@ -9917,7 +9910,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418">
         <v>3136579</v>
       </c>
@@ -9928,7 +9921,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A419">
         <v>3136603</v>
       </c>
@@ -9939,7 +9932,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A420">
         <v>3136652</v>
       </c>
@@ -9950,7 +9943,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A421">
         <v>3136702</v>
       </c>
@@ -9961,7 +9954,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A422">
         <v>3136801</v>
       </c>
@@ -9972,7 +9965,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A423">
         <v>3136900</v>
       </c>
@@ -9983,7 +9976,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A424">
         <v>3136959</v>
       </c>
@@ -9994,7 +9987,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A425">
         <v>3137007</v>
       </c>
@@ -10005,7 +9998,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A426">
         <v>3137106</v>
       </c>
@@ -10016,7 +10009,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A427">
         <v>3137205</v>
       </c>
@@ -10027,7 +10020,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A428">
         <v>3137304</v>
       </c>
@@ -10038,7 +10031,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A429">
         <v>3137403</v>
       </c>
@@ -10049,7 +10042,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A430">
         <v>3137502</v>
       </c>
@@ -10060,7 +10053,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A431">
         <v>3137536</v>
       </c>
@@ -10071,7 +10064,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A432">
         <v>3137601</v>
       </c>
@@ -10082,7 +10075,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A433">
         <v>3137700</v>
       </c>
@@ -10093,7 +10086,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A434">
         <v>3137809</v>
       </c>
@@ -10104,7 +10097,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A435">
         <v>3137908</v>
       </c>
@@ -10115,7 +10108,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A436">
         <v>3138005</v>
       </c>
@@ -10126,7 +10119,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A437">
         <v>3138104</v>
       </c>
@@ -10137,7 +10130,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A438">
         <v>3138203</v>
       </c>
@@ -10148,7 +10141,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A439">
         <v>3138302</v>
       </c>
@@ -10159,7 +10152,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A440">
         <v>3138351</v>
       </c>
@@ -10170,7 +10163,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A441">
         <v>3138401</v>
       </c>
@@ -10181,7 +10174,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A442">
         <v>3138500</v>
       </c>
@@ -10192,7 +10185,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A443">
         <v>3138609</v>
       </c>
@@ -10203,7 +10196,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A444">
         <v>3138625</v>
       </c>
@@ -10214,7 +10207,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A445">
         <v>3138658</v>
       </c>
@@ -10225,7 +10218,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A446">
         <v>3138674</v>
       </c>
@@ -10236,7 +10229,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A447">
         <v>3138682</v>
       </c>
@@ -10247,7 +10240,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A448">
         <v>3138708</v>
       </c>
@@ -10258,7 +10251,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A449">
         <v>3138807</v>
       </c>
@@ -10269,7 +10262,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A450">
         <v>3138906</v>
       </c>
@@ -10280,7 +10273,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A451">
         <v>3139003</v>
       </c>
@@ -10291,7 +10284,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452">
         <v>3139102</v>
       </c>
@@ -10302,7 +10295,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453">
         <v>3139201</v>
       </c>
@@ -10313,7 +10306,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454">
         <v>3139250</v>
       </c>
@@ -10324,7 +10317,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455">
         <v>3139300</v>
       </c>
@@ -10335,7 +10328,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456">
         <v>3139409</v>
       </c>
@@ -10346,7 +10339,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457">
         <v>3139508</v>
       </c>
@@ -10357,7 +10350,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458">
         <v>3139607</v>
       </c>
@@ -10368,7 +10361,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459">
         <v>3139706</v>
       </c>
@@ -10379,7 +10372,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460">
         <v>3139805</v>
       </c>
@@ -10390,7 +10383,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461">
         <v>3139904</v>
       </c>
@@ -10401,7 +10394,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462">
         <v>3140001</v>
       </c>
@@ -10412,7 +10405,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463">
         <v>3140100</v>
       </c>
@@ -10423,7 +10416,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464">
         <v>3140159</v>
       </c>
@@ -10434,7 +10427,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465">
         <v>3140209</v>
       </c>
@@ -10445,7 +10438,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466">
         <v>3140308</v>
       </c>
@@ -10456,7 +10449,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467">
         <v>3140407</v>
       </c>
@@ -10467,7 +10460,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468">
         <v>3140506</v>
       </c>
@@ -10478,7 +10471,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469">
         <v>3140530</v>
       </c>
@@ -10489,7 +10482,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470">
         <v>3140555</v>
       </c>
@@ -10500,7 +10493,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471">
         <v>3140605</v>
       </c>
@@ -10511,7 +10504,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472">
         <v>3140704</v>
       </c>
@@ -10522,7 +10515,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473">
         <v>3140803</v>
       </c>
@@ -10533,7 +10526,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474">
         <v>3140852</v>
       </c>
@@ -10544,7 +10537,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475">
         <v>3140902</v>
       </c>
@@ -10555,7 +10548,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476">
         <v>3141009</v>
       </c>
@@ -10566,7 +10559,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477">
         <v>3141108</v>
       </c>
@@ -10577,7 +10570,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478">
         <v>3141207</v>
       </c>
@@ -10588,7 +10581,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479">
         <v>3141306</v>
       </c>
@@ -10599,7 +10592,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480">
         <v>3141405</v>
       </c>
@@ -10610,7 +10603,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481">
         <v>3141504</v>
       </c>
@@ -10621,7 +10614,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482">
         <v>3141603</v>
       </c>
@@ -10632,7 +10625,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483">
         <v>3141702</v>
       </c>
@@ -10643,7 +10636,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484">
         <v>3141801</v>
       </c>
@@ -10654,7 +10647,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485">
         <v>3141900</v>
       </c>
@@ -10665,7 +10658,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486">
         <v>3142007</v>
       </c>
@@ -10676,7 +10669,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487">
         <v>3142106</v>
       </c>
@@ -10687,7 +10680,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488">
         <v>3142205</v>
       </c>
@@ -10698,7 +10691,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489">
         <v>3142254</v>
       </c>
@@ -10709,7 +10702,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490">
         <v>3142304</v>
       </c>
@@ -10720,7 +10713,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491">
         <v>3142403</v>
       </c>
@@ -10731,7 +10724,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492">
         <v>3142502</v>
       </c>
@@ -10742,7 +10735,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493">
         <v>3142601</v>
       </c>
@@ -10753,7 +10746,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494">
         <v>3142700</v>
       </c>
@@ -10764,7 +10757,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495">
         <v>3142809</v>
       </c>
@@ -10775,7 +10768,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496">
         <v>3142908</v>
       </c>
@@ -10786,7 +10779,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497">
         <v>3143005</v>
       </c>
@@ -10797,7 +10790,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498">
         <v>3143104</v>
       </c>
@@ -10808,7 +10801,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499">
         <v>3143153</v>
       </c>
@@ -10819,7 +10812,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500">
         <v>3143203</v>
       </c>
@@ -10830,7 +10823,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501">
         <v>3143302</v>
       </c>
@@ -10841,7 +10834,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502">
         <v>3143401</v>
       </c>
@@ -10852,7 +10845,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503">
         <v>3143450</v>
       </c>
@@ -10863,7 +10856,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504">
         <v>3143500</v>
       </c>
@@ -10874,7 +10867,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505">
         <v>3143609</v>
       </c>
@@ -10885,7 +10878,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506">
         <v>3143708</v>
       </c>
@@ -10896,7 +10889,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507">
         <v>3143807</v>
       </c>
@@ -10907,7 +10900,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508">
         <v>3143906</v>
       </c>
@@ -10918,7 +10911,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509">
         <v>3144003</v>
       </c>
@@ -10929,7 +10922,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510">
         <v>3144102</v>
       </c>
@@ -10940,7 +10933,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511">
         <v>3144201</v>
       </c>
@@ -10951,7 +10944,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512">
         <v>3144300</v>
       </c>
@@ -10962,7 +10955,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513">
         <v>3144359</v>
       </c>
@@ -10973,7 +10966,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514">
         <v>3144375</v>
       </c>
@@ -10984,7 +10977,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515">
         <v>3144409</v>
       </c>
@@ -10995,7 +10988,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516">
         <v>3144508</v>
       </c>
@@ -11006,7 +10999,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517">
         <v>3144607</v>
       </c>
@@ -11017,7 +11010,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518">
         <v>3144656</v>
       </c>
@@ -11028,7 +11021,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519">
         <v>3144672</v>
       </c>
@@ -11039,7 +11032,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520">
         <v>3144706</v>
       </c>
@@ -11050,7 +11043,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521">
         <v>3144805</v>
       </c>
@@ -11061,7 +11054,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522">
         <v>3144904</v>
       </c>
@@ -11072,7 +11065,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523">
         <v>3145000</v>
       </c>
@@ -11083,7 +11076,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524">
         <v>3145059</v>
       </c>
@@ -11094,7 +11087,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525">
         <v>3145109</v>
       </c>
@@ -11105,7 +11098,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526">
         <v>3145208</v>
       </c>
@@ -11116,7 +11109,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527">
         <v>3145307</v>
       </c>
@@ -11127,7 +11120,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528">
         <v>3145356</v>
       </c>
@@ -11138,7 +11131,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529">
         <v>3145372</v>
       </c>
@@ -11149,7 +11142,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530">
         <v>3145406</v>
       </c>
@@ -11160,7 +11153,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531">
         <v>3145455</v>
       </c>
@@ -11171,7 +11164,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532">
         <v>3145505</v>
       </c>
@@ -11182,7 +11175,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533">
         <v>3145604</v>
       </c>
@@ -11193,7 +11186,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534">
         <v>3145703</v>
       </c>
@@ -11204,7 +11197,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535">
         <v>3145802</v>
       </c>
@@ -11215,7 +11208,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536">
         <v>3145851</v>
       </c>
@@ -11226,7 +11219,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537">
         <v>3145877</v>
       </c>
@@ -11237,7 +11230,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538">
         <v>3145901</v>
       </c>
@@ -11248,7 +11241,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539">
         <v>3146008</v>
       </c>
@@ -11259,7 +11252,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540">
         <v>3146107</v>
       </c>
@@ -11270,7 +11263,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541">
         <v>3146206</v>
       </c>
@@ -11281,7 +11274,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542">
         <v>3146255</v>
       </c>
@@ -11292,7 +11285,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543">
         <v>3146305</v>
       </c>
@@ -11303,7 +11296,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544">
         <v>3146404</v>
       </c>
@@ -11314,7 +11307,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545">
         <v>3146503</v>
       </c>
@@ -11325,7 +11318,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546">
         <v>3146552</v>
       </c>
@@ -11336,7 +11329,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547">
         <v>3146602</v>
       </c>
@@ -11347,7 +11340,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548">
         <v>3146701</v>
       </c>
@@ -11358,7 +11351,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549">
         <v>3146750</v>
       </c>
@@ -11369,7 +11362,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550">
         <v>3146909</v>
       </c>
@@ -11380,7 +11373,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551">
         <v>3147006</v>
       </c>
@@ -11391,7 +11384,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552">
         <v>3147105</v>
       </c>
@@ -11402,7 +11395,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553">
         <v>3147204</v>
       </c>
@@ -11413,7 +11406,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554">
         <v>3147303</v>
       </c>
@@ -11424,7 +11417,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555">
         <v>3147402</v>
       </c>
@@ -11435,7 +11428,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556">
         <v>3147501</v>
       </c>
@@ -11446,7 +11439,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557">
         <v>3147600</v>
       </c>
@@ -11457,7 +11450,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558">
         <v>3147709</v>
       </c>
@@ -11468,7 +11461,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559">
         <v>3147808</v>
       </c>
@@ -11479,7 +11472,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560">
         <v>3147907</v>
       </c>
@@ -11490,7 +11483,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561">
         <v>3147956</v>
       </c>
@@ -11501,7 +11494,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562">
         <v>3148004</v>
       </c>
@@ -11512,7 +11505,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563">
         <v>3148103</v>
       </c>
@@ -11523,7 +11516,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564">
         <v>3148202</v>
       </c>
@@ -11534,7 +11527,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565">
         <v>3148301</v>
       </c>
@@ -11545,7 +11538,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566">
         <v>3148400</v>
       </c>
@@ -11556,7 +11549,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567">
         <v>3148509</v>
       </c>
@@ -11567,7 +11560,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568">
         <v>3148608</v>
       </c>
@@ -11578,7 +11571,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569">
         <v>3148707</v>
       </c>
@@ -11589,7 +11582,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570">
         <v>3148756</v>
       </c>
@@ -11600,7 +11593,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571">
         <v>3148806</v>
       </c>
@@ -11611,7 +11604,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572">
         <v>3148905</v>
       </c>
@@ -11622,7 +11615,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573">
         <v>3149002</v>
       </c>
@@ -11633,7 +11626,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574">
         <v>3149101</v>
       </c>
@@ -11644,7 +11637,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575">
         <v>3149150</v>
       </c>
@@ -11655,7 +11648,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576">
         <v>3149200</v>
       </c>
@@ -11666,7 +11659,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577">
         <v>3149309</v>
       </c>
@@ -11677,7 +11670,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578">
         <v>3149408</v>
       </c>
@@ -11688,7 +11681,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579">
         <v>3149507</v>
       </c>
@@ -11699,7 +11692,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580">
         <v>3149606</v>
       </c>
@@ -11710,7 +11703,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581">
         <v>3149705</v>
       </c>
@@ -11721,7 +11714,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582">
         <v>3149804</v>
       </c>
@@ -11732,7 +11725,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583">
         <v>3149903</v>
       </c>
@@ -11743,7 +11736,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584">
         <v>3149952</v>
       </c>
@@ -11754,7 +11747,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585">
         <v>3150000</v>
       </c>
@@ -11765,7 +11758,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586">
         <v>3150109</v>
       </c>
@@ -11776,7 +11769,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587">
         <v>3150158</v>
       </c>
@@ -11787,7 +11780,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588">
         <v>3150208</v>
       </c>
@@ -11798,7 +11791,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589">
         <v>3150307</v>
       </c>
@@ -11809,7 +11802,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590">
         <v>3150406</v>
       </c>
@@ -11820,7 +11813,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591">
         <v>3150505</v>
       </c>
@@ -11831,7 +11824,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592">
         <v>3150539</v>
       </c>
@@ -11842,7 +11835,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593">
         <v>3150570</v>
       </c>
@@ -11853,7 +11846,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594">
         <v>3150604</v>
       </c>
@@ -11864,7 +11857,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595">
         <v>3150703</v>
       </c>
@@ -11875,7 +11868,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596">
         <v>3150802</v>
       </c>
@@ -11886,7 +11879,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597">
         <v>3150901</v>
       </c>
@@ -11897,7 +11890,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598">
         <v>3151008</v>
       </c>
@@ -11908,7 +11901,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599">
         <v>3151107</v>
       </c>
@@ -11919,7 +11912,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600">
         <v>3151206</v>
       </c>
@@ -11930,7 +11923,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601">
         <v>3151305</v>
       </c>
@@ -11941,7 +11934,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602">
         <v>3151404</v>
       </c>
@@ -11952,7 +11945,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603">
         <v>3151503</v>
       </c>
@@ -11963,7 +11956,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604">
         <v>3151602</v>
       </c>
@@ -11974,7 +11967,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605">
         <v>3151701</v>
       </c>
@@ -11985,7 +11978,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606">
         <v>3151800</v>
       </c>
@@ -11996,7 +11989,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607">
         <v>3151909</v>
       </c>
@@ -12007,7 +12000,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608">
         <v>3152006</v>
       </c>
@@ -12018,7 +12011,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609">
         <v>3152105</v>
       </c>
@@ -12029,7 +12022,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610">
         <v>3152131</v>
       </c>
@@ -12040,7 +12033,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611">
         <v>3152170</v>
       </c>
@@ -12051,7 +12044,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612">
         <v>3152204</v>
       </c>
@@ -12062,7 +12055,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613">
         <v>3152303</v>
       </c>
@@ -12073,7 +12066,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614">
         <v>3152402</v>
       </c>
@@ -12084,7 +12077,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615">
         <v>3152501</v>
       </c>
@@ -12095,7 +12088,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616">
         <v>3152600</v>
       </c>
@@ -12106,7 +12099,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617">
         <v>3152709</v>
       </c>
@@ -12117,7 +12110,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618">
         <v>3152808</v>
       </c>
@@ -12128,7 +12121,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619">
         <v>3152907</v>
       </c>
@@ -12139,7 +12132,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620">
         <v>3153004</v>
       </c>
@@ -12150,7 +12143,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621">
         <v>3153103</v>
       </c>
@@ -12161,7 +12154,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622">
         <v>3153202</v>
       </c>
@@ -12172,7 +12165,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623">
         <v>3153301</v>
       </c>
@@ -12183,7 +12176,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624">
         <v>3153400</v>
       </c>
@@ -12194,7 +12187,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625">
         <v>3153509</v>
       </c>
@@ -12205,7 +12198,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626">
         <v>3153608</v>
       </c>
@@ -12216,7 +12209,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627">
         <v>3153707</v>
       </c>
@@ -12227,7 +12220,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628">
         <v>3153806</v>
       </c>
@@ -12238,7 +12231,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629">
         <v>3153905</v>
       </c>
@@ -12249,7 +12242,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630">
         <v>3154002</v>
       </c>
@@ -12260,7 +12253,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631">
         <v>3154101</v>
       </c>
@@ -12271,7 +12264,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632">
         <v>3154150</v>
       </c>
@@ -12282,7 +12275,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633">
         <v>3154200</v>
       </c>
@@ -12293,7 +12286,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634">
         <v>3154309</v>
       </c>
@@ -12304,7 +12297,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635">
         <v>3154408</v>
       </c>
@@ -12315,7 +12308,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636">
         <v>3154457</v>
       </c>
@@ -12326,7 +12319,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637">
         <v>3154507</v>
       </c>
@@ -12337,7 +12330,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638">
         <v>3154606</v>
       </c>
@@ -12348,7 +12341,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639">
         <v>3154705</v>
       </c>
@@ -12359,7 +12352,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640">
         <v>3154804</v>
       </c>
@@ -12370,7 +12363,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641">
         <v>3154903</v>
       </c>
@@ -12381,7 +12374,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642">
         <v>3155009</v>
       </c>
@@ -12392,7 +12385,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643">
         <v>3155108</v>
       </c>
@@ -12403,7 +12396,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644">
         <v>3155207</v>
       </c>
@@ -12414,7 +12407,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645">
         <v>3155306</v>
       </c>
@@ -12425,7 +12418,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646">
         <v>3155405</v>
       </c>
@@ -12436,7 +12429,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647">
         <v>3155504</v>
       </c>
@@ -12447,7 +12440,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648">
         <v>3155603</v>
       </c>
@@ -12458,7 +12451,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649">
         <v>3155702</v>
       </c>
@@ -12469,7 +12462,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650">
         <v>3155801</v>
       </c>
@@ -12480,7 +12473,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651">
         <v>3155900</v>
       </c>
@@ -12491,7 +12484,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652">
         <v>3156007</v>
       </c>
@@ -12502,7 +12495,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653">
         <v>3156106</v>
       </c>
@@ -12513,7 +12506,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654">
         <v>3156205</v>
       </c>
@@ -12524,7 +12517,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655">
         <v>3156304</v>
       </c>
@@ -12535,7 +12528,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656">
         <v>3156403</v>
       </c>
@@ -12546,7 +12539,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657">
         <v>3156452</v>
       </c>
@@ -12557,7 +12550,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658">
         <v>3156502</v>
       </c>
@@ -12568,7 +12561,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659">
         <v>3156601</v>
       </c>
@@ -12579,7 +12572,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660">
         <v>3156700</v>
       </c>
@@ -12590,7 +12583,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661">
         <v>3156809</v>
       </c>
@@ -12601,7 +12594,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662">
         <v>3156908</v>
       </c>
@@ -12612,7 +12605,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663">
         <v>3157005</v>
       </c>
@@ -12623,7 +12616,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664">
         <v>3157104</v>
       </c>
@@ -12634,7 +12627,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665">
         <v>3157203</v>
       </c>
@@ -12645,7 +12638,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666">
         <v>3157252</v>
       </c>
@@ -12656,7 +12649,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667">
         <v>3157278</v>
       </c>
@@ -12667,7 +12660,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668">
         <v>3157302</v>
       </c>
@@ -12678,7 +12671,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669">
         <v>3157336</v>
       </c>
@@ -12689,7 +12682,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670">
         <v>3157377</v>
       </c>
@@ -12700,7 +12693,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671">
         <v>3157401</v>
       </c>
@@ -12711,7 +12704,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672">
         <v>3157500</v>
       </c>
@@ -12722,7 +12715,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673">
         <v>3157609</v>
       </c>
@@ -12733,7 +12726,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674">
         <v>3157658</v>
       </c>
@@ -12744,7 +12737,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675">
         <v>3157708</v>
       </c>
@@ -12755,7 +12748,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676">
         <v>3157807</v>
       </c>
@@ -12766,7 +12759,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677">
         <v>3157906</v>
       </c>
@@ -12777,7 +12770,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678">
         <v>3158003</v>
       </c>
@@ -12788,7 +12781,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679">
         <v>3158102</v>
       </c>
@@ -12799,7 +12792,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680">
         <v>3158201</v>
       </c>
@@ -12810,7 +12803,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681">
         <v>3158300</v>
       </c>
@@ -12821,7 +12814,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682">
         <v>3158409</v>
       </c>
@@ -12832,7 +12825,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683">
         <v>3158508</v>
       </c>
@@ -12843,7 +12836,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684">
         <v>3158607</v>
       </c>
@@ -12854,7 +12847,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685">
         <v>3158706</v>
       </c>
@@ -12865,7 +12858,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686">
         <v>3158805</v>
       </c>
@@ -12876,7 +12869,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687">
         <v>3158904</v>
       </c>
@@ -12887,7 +12880,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688">
         <v>3158953</v>
       </c>
@@ -12898,7 +12891,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689">
         <v>3159001</v>
       </c>
@@ -12909,7 +12902,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690">
         <v>3159100</v>
       </c>
@@ -12920,7 +12913,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691">
         <v>3159209</v>
       </c>
@@ -12931,7 +12924,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692">
         <v>3159308</v>
       </c>
@@ -12942,7 +12935,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693">
         <v>3159357</v>
       </c>
@@ -12953,7 +12946,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694">
         <v>3159407</v>
       </c>
@@ -12964,7 +12957,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695">
         <v>3159506</v>
       </c>
@@ -12975,7 +12968,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696">
         <v>3159605</v>
       </c>
@@ -12986,7 +12979,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697">
         <v>3159704</v>
       </c>
@@ -12997,7 +12990,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698">
         <v>3159803</v>
       </c>
@@ -13008,7 +13001,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699">
         <v>3159902</v>
       </c>
@@ -13019,7 +13012,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700">
         <v>3160009</v>
       </c>
@@ -13030,7 +13023,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701">
         <v>3160108</v>
       </c>
@@ -13041,7 +13034,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702">
         <v>3160207</v>
       </c>
@@ -13052,7 +13045,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703">
         <v>3160306</v>
       </c>
@@ -13063,7 +13056,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704">
         <v>3160405</v>
       </c>
@@ -13074,7 +13067,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705">
         <v>3160454</v>
       </c>
@@ -13085,7 +13078,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706">
         <v>3160504</v>
       </c>
@@ -13096,7 +13089,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707">
         <v>3160603</v>
       </c>
@@ -13107,7 +13100,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708">
         <v>3160702</v>
       </c>
@@ -13118,7 +13111,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709">
         <v>3160801</v>
       </c>
@@ -13129,7 +13122,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710">
         <v>3160900</v>
       </c>
@@ -13140,7 +13133,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711">
         <v>3160959</v>
       </c>
@@ -13151,7 +13144,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712">
         <v>3161007</v>
       </c>
@@ -13162,7 +13155,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713">
         <v>3161056</v>
       </c>
@@ -13173,7 +13166,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714">
         <v>3161106</v>
       </c>
@@ -13184,7 +13177,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715">
         <v>3161205</v>
       </c>
@@ -13195,7 +13188,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716">
         <v>3161304</v>
       </c>
@@ -13206,7 +13199,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717">
         <v>3161403</v>
       </c>
@@ -13217,7 +13210,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718">
         <v>3161502</v>
       </c>
@@ -13228,7 +13221,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719">
         <v>3161601</v>
       </c>
@@ -13239,7 +13232,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720">
         <v>3161650</v>
       </c>
@@ -13250,7 +13243,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721">
         <v>3161700</v>
       </c>
@@ -13261,7 +13254,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722">
         <v>3161809</v>
       </c>
@@ -13272,7 +13265,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723">
         <v>3161908</v>
       </c>
@@ -13283,7 +13276,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724">
         <v>3162005</v>
       </c>
@@ -13294,7 +13287,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725">
         <v>3162104</v>
       </c>
@@ -13305,7 +13298,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726">
         <v>3162203</v>
       </c>
@@ -13316,7 +13309,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727">
         <v>3162252</v>
       </c>
@@ -13327,7 +13320,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728">
         <v>3162302</v>
       </c>
@@ -13338,7 +13331,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729">
         <v>3162401</v>
       </c>
@@ -13349,7 +13342,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730">
         <v>3162450</v>
       </c>
@@ -13360,7 +13353,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731">
         <v>3162500</v>
       </c>
@@ -13371,7 +13364,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732">
         <v>3162559</v>
       </c>
@@ -13382,7 +13375,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733">
         <v>3162575</v>
       </c>
@@ -13393,7 +13386,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734">
         <v>3162609</v>
       </c>
@@ -13404,7 +13397,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735">
         <v>3162658</v>
       </c>
@@ -13415,7 +13408,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736">
         <v>3162708</v>
       </c>
@@ -13426,7 +13419,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737">
         <v>3162807</v>
       </c>
@@ -13437,7 +13430,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738">
         <v>3162906</v>
       </c>
@@ -13448,7 +13441,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739">
         <v>3162922</v>
       </c>
@@ -13459,7 +13452,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740">
         <v>3162948</v>
       </c>
@@ -13470,7 +13463,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741">
         <v>3162955</v>
       </c>
@@ -13481,7 +13474,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742">
         <v>3163003</v>
       </c>
@@ -13492,7 +13485,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743">
         <v>3163102</v>
       </c>
@@ -13503,7 +13496,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744">
         <v>3163201</v>
       </c>
@@ -13514,7 +13507,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745">
         <v>3163300</v>
       </c>
@@ -13525,7 +13518,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746">
         <v>3163409</v>
       </c>
@@ -13536,7 +13529,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747">
         <v>3163508</v>
       </c>
@@ -13547,7 +13540,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748">
         <v>3163607</v>
       </c>
@@ -13558,7 +13551,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749">
         <v>3163706</v>
       </c>
@@ -13569,7 +13562,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750">
         <v>3163805</v>
       </c>
@@ -13580,7 +13573,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751">
         <v>3163904</v>
       </c>
@@ -13591,7 +13584,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752">
         <v>3164001</v>
       </c>
@@ -13602,7 +13595,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753">
         <v>3164100</v>
       </c>
@@ -13613,7 +13606,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754">
         <v>3164209</v>
       </c>
@@ -13624,7 +13617,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755">
         <v>3164308</v>
       </c>
@@ -13635,7 +13628,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756">
         <v>3164407</v>
       </c>
@@ -13646,7 +13639,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757">
         <v>3164431</v>
       </c>
@@ -13657,7 +13650,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758">
         <v>3164472</v>
       </c>
@@ -13668,7 +13661,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759">
         <v>3164506</v>
       </c>
@@ -13679,7 +13672,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760">
         <v>3164605</v>
       </c>
@@ -13690,7 +13683,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761">
         <v>3164704</v>
       </c>
@@ -13701,7 +13694,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762">
         <v>3164803</v>
       </c>
@@ -13712,7 +13705,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763">
         <v>3164902</v>
       </c>
@@ -13723,7 +13716,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764">
         <v>3165008</v>
       </c>
@@ -13734,7 +13727,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765">
         <v>3165107</v>
       </c>
@@ -13745,7 +13738,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766">
         <v>3165206</v>
       </c>
@@ -13756,7 +13749,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767">
         <v>3165305</v>
       </c>
@@ -13767,7 +13760,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768">
         <v>3165404</v>
       </c>
@@ -13778,7 +13771,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769">
         <v>3165503</v>
       </c>
@@ -13789,7 +13782,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770">
         <v>3165537</v>
       </c>
@@ -13800,7 +13793,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771">
         <v>3165552</v>
       </c>
@@ -13811,7 +13804,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772">
         <v>3165560</v>
       </c>
@@ -13822,7 +13815,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773">
         <v>3165578</v>
       </c>
@@ -13833,7 +13826,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774">
         <v>3165602</v>
       </c>
@@ -13844,7 +13837,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775">
         <v>3165701</v>
       </c>
@@ -13855,7 +13848,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776">
         <v>3165800</v>
       </c>
@@ -13866,7 +13859,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777">
         <v>3165909</v>
       </c>
@@ -13877,7 +13870,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778">
         <v>3166006</v>
       </c>
@@ -13888,7 +13881,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779">
         <v>3166105</v>
       </c>
@@ -13899,7 +13892,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780">
         <v>3166204</v>
       </c>
@@ -13910,7 +13903,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781">
         <v>3166303</v>
       </c>
@@ -13921,7 +13914,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782">
         <v>3166402</v>
       </c>
@@ -13932,7 +13925,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783">
         <v>3166501</v>
       </c>
@@ -13943,7 +13936,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784">
         <v>3166600</v>
       </c>
@@ -13954,7 +13947,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785">
         <v>3166709</v>
       </c>
@@ -13965,7 +13958,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786">
         <v>3166808</v>
       </c>
@@ -13976,7 +13969,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787">
         <v>3166907</v>
       </c>
@@ -13987,7 +13980,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788">
         <v>3166956</v>
       </c>
@@ -13998,7 +13991,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789">
         <v>3167004</v>
       </c>
@@ -14009,7 +14002,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790">
         <v>3167103</v>
       </c>
@@ -14020,7 +14013,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791">
         <v>3167202</v>
       </c>
@@ -14031,7 +14024,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792">
         <v>3167301</v>
       </c>
@@ -14042,7 +14035,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793">
         <v>3167400</v>
       </c>
@@ -14053,7 +14046,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794">
         <v>3167509</v>
       </c>
@@ -14064,7 +14057,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795">
         <v>3167608</v>
       </c>
@@ -14075,7 +14068,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796">
         <v>3167707</v>
       </c>
@@ -14086,7 +14079,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797">
         <v>3167806</v>
       </c>
@@ -14097,7 +14090,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798">
         <v>3167905</v>
       </c>
@@ -14108,7 +14101,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799">
         <v>3168002</v>
       </c>
@@ -14119,7 +14112,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800">
         <v>3168051</v>
       </c>
@@ -14130,7 +14123,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="801" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801">
         <v>3168101</v>
       </c>
@@ -14141,7 +14134,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="802" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802">
         <v>3168200</v>
       </c>
@@ -14152,7 +14145,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="803" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803">
         <v>3168309</v>
       </c>
@@ -14163,7 +14156,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="804" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804">
         <v>3168408</v>
       </c>
@@ -14174,7 +14167,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="805" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805">
         <v>3168507</v>
       </c>
@@ -14185,7 +14178,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="806" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806">
         <v>3168606</v>
       </c>
@@ -14196,7 +14189,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="807" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807">
         <v>3168705</v>
       </c>
@@ -14207,7 +14200,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="808" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808">
         <v>3168804</v>
       </c>
@@ -14218,7 +14211,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="809" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809">
         <v>3168903</v>
       </c>
@@ -14229,7 +14222,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="810" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810">
         <v>3169000</v>
       </c>
@@ -14240,7 +14233,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="811" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811">
         <v>3169059</v>
       </c>
@@ -14251,7 +14244,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="812" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812">
         <v>3169109</v>
       </c>
@@ -14262,7 +14255,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="813" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813">
         <v>3169208</v>
       </c>
@@ -14273,7 +14266,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="814" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814">
         <v>3169307</v>
       </c>
@@ -14284,7 +14277,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="815" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815">
         <v>3169356</v>
       </c>
@@ -14295,7 +14288,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="816" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816">
         <v>3169406</v>
       </c>
@@ -14306,7 +14299,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817">
         <v>3169505</v>
       </c>
@@ -14317,7 +14310,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818">
         <v>3169604</v>
       </c>
@@ -14328,7 +14321,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819">
         <v>3169703</v>
       </c>
@@ -14339,7 +14332,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820">
         <v>3169802</v>
       </c>
@@ -14350,7 +14343,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="821" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821">
         <v>3169901</v>
       </c>
@@ -14361,7 +14354,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822">
         <v>3170008</v>
       </c>
@@ -14372,7 +14365,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823">
         <v>3170057</v>
       </c>
@@ -14383,7 +14376,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824">
         <v>3170107</v>
       </c>
@@ -14394,7 +14387,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825">
         <v>3170206</v>
       </c>
@@ -14405,7 +14398,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826">
         <v>3170305</v>
       </c>
@@ -14416,7 +14409,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="827" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827">
         <v>3170404</v>
       </c>
@@ -14427,7 +14420,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828">
         <v>3170438</v>
       </c>
@@ -14438,7 +14431,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829">
         <v>3170479</v>
       </c>
@@ -14449,7 +14442,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830">
         <v>3170503</v>
       </c>
@@ -14460,7 +14453,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831">
         <v>3170529</v>
       </c>
@@ -14471,7 +14464,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832">
         <v>3170578</v>
       </c>
@@ -14482,7 +14475,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833">
         <v>3170602</v>
       </c>
@@ -14493,7 +14486,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834">
         <v>3170651</v>
       </c>
@@ -14504,7 +14497,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835">
         <v>3170701</v>
       </c>
@@ -14515,7 +14508,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="836" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836">
         <v>3170750</v>
       </c>
@@ -14526,7 +14519,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837">
         <v>3170800</v>
       </c>
@@ -14537,7 +14530,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838">
         <v>3170909</v>
       </c>
@@ -14548,7 +14541,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839">
         <v>3171006</v>
       </c>
@@ -14559,7 +14552,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840">
         <v>3171030</v>
       </c>
@@ -14570,7 +14563,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="841" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841">
         <v>3171071</v>
       </c>
@@ -14581,7 +14574,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842">
         <v>3171105</v>
       </c>
@@ -14592,7 +14585,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843">
         <v>3171154</v>
       </c>
@@ -14603,7 +14596,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="844" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844">
         <v>3171204</v>
       </c>
@@ -14614,7 +14607,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845">
         <v>3171303</v>
       </c>
@@ -14625,7 +14618,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846">
         <v>3171402</v>
       </c>
@@ -14636,7 +14629,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="847" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847">
         <v>3171501</v>
       </c>
@@ -14647,7 +14640,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="848" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848">
         <v>3171600</v>
       </c>
@@ -14658,7 +14651,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="849" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849">
         <v>3171709</v>
       </c>
@@ -14669,7 +14662,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="850" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850">
         <v>3171808</v>
       </c>
@@ -14680,7 +14673,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="851" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851">
         <v>3171907</v>
       </c>
@@ -14691,7 +14684,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="852" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852">
         <v>3172004</v>
       </c>
@@ -14702,7 +14695,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="853" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853">
         <v>3172103</v>
       </c>
@@ -14713,7 +14706,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="854" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854">
         <v>3172202</v>
       </c>
@@ -14723,9 +14716,6 @@
       <c r="C854" t="s">
         <v>1648</v>
       </c>
-    </row>
-    <row r="859" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B859" s="1"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
